--- a/OutputFiles/TC05_Canine_Filter_Breed-Beagle_Neo4jData.xlsx
+++ b/OutputFiles/TC05_Canine_Filter_Breed-Beagle_Neo4jData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="53">
   <si>
     <t>Case ID</t>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>MATCH (s:study) WITH COLLECT(DISTINCT(s.clinical_study_designation)) AS all_studies MATCH (d:demographic) WITH COLLECT(DISTINCT(d.breed)) AS all_breeds, COLLECT(DISTINCT(d.sex)) AS all_sexes, all_studies MATCH (d:diagnosis) WITH COLLECT(DISTINCT(d.disease_term)) AS all_diseases, all_breeds, all_sexes, all_studies MATCH (p:program)&lt;-[*]-(s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic), (c)&lt;--(diag:diagnosis) WHERE demo.breed IN['Akita']  OPTIONAL MATCH (f:file)-[*]-&gt;(c), (samp:sample)-[*]-&gt;(c) WITH DISTINCT c AS c, p, s, demo, diag, f, samp RETURN count(DISTINCT(f)) as number_of_files , count(DISTINCT(samp)) as number_of_sample , count(DISTINCT(c.case_id)) as number_of_cases , count(DISTINCT(s.clinical_study_designation)) as number_of_study</t>
+  </si>
+  <si>
+    <t>C:\Katalon_mastercopy520\DataCommons_Automation\OutputFiles\TC05_Canine_Filter_Breed-Beagle_Neo4jData.xlsx</t>
   </si>
 </sst>
 </file>
@@ -519,7 +522,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -623,7 +626,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11">
@@ -673,7 +676,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/OutputFiles/TC05_Canine_Filter_Breed-Beagle_Neo4jData.xlsx
+++ b/OutputFiles/TC05_Canine_Filter_Breed-Beagle_Neo4jData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="53">
   <si>
     <t>Case ID</t>
   </si>

--- a/OutputFiles/TC05_Canine_Filter_Breed-Beagle_Neo4jData.xlsx
+++ b/OutputFiles/TC05_Canine_Filter_Breed-Beagle_Neo4jData.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="87">
   <si>
     <t>Case ID</t>
   </si>
@@ -216,6 +216,69 @@
   </si>
   <si>
     <t>MATCH (f:file)-[*]-&gt;(c:case) WITH DISTINCT(f) AS f, c MATCH (f)--&gt;(parent) WHERE c.case_id IN ['NCATS-COP01CCB010072'] RETURN f.file_name AS `File Name` ,f.file_type AS `File Type`,head(labels(parent)) AS `Association`, f.file_description AS `Description`,f.file_format AS Format,((f.file_size)/1024) AS Size</t>
+  </si>
+  <si>
+    <t>COTC007B-0503</t>
+  </si>
+  <si>
+    <t>Lymphoma</t>
+  </si>
+  <si>
+    <t>IIIa</t>
+  </si>
+  <si>
+    <t>COTC007B-0211</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>COTC007B-0510</t>
+  </si>
+  <si>
+    <t>COTC007B-0608</t>
+  </si>
+  <si>
+    <t>IVa</t>
+  </si>
+  <si>
+    <t>NCATS-COP01-CCB010045</t>
+  </si>
+  <si>
+    <t>T Cell Lymphoma</t>
+  </si>
+  <si>
+    <t>GLIOMA01-i_6561</t>
+  </si>
+  <si>
+    <t>GLIOMA01</t>
+  </si>
+  <si>
+    <t>Genomics</t>
+  </si>
+  <si>
+    <t>Glioma</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Cypher query should not be an empty string</t>
   </si>
 </sst>
 </file>
@@ -260,7 +323,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
@@ -297,25 +360,25 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
         <v>16</v>
@@ -326,7 +389,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -338,24 +401,24 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -367,24 +430,24 @@
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H4" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -396,48 +459,77 @@
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="F6" t="s">
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I6" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -595,16 +687,16 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -733,26 +825,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" t="s">
-        <v>59</v>
-      </c>
-    </row>
+    <row r="1"/>
     <row r="2">
       <c r="A2" t="s">
         <v>60</v>
@@ -780,7 +853,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -888,51 +961,56 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
         <v>44</v>
       </c>
     </row>
